--- a/data_selection/result/地区生产总值-江门-解释变量-V3-先行-V3.xlsx
+++ b/data_selection/result/地区生产总值-江门-解释变量-V3-先行-V3.xlsx
@@ -994,17 +994,17 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>工业销售产值</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>出口交货值</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>全社会用电量</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>工业销售产值</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -1063,13 +1063,13 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="n">
         <v>8.5</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>6.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>3.3</v>
@@ -1094,13 +1094,13 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="I4" t="n">
         <v>8.1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>4.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9.9</v>
       </c>
       <c r="K4" t="n">
         <v>3.5</v>
@@ -1129,13 +1129,13 @@
         <v>29.5</v>
       </c>
       <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>5.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8</v>
       </c>
       <c r="K5" t="n">
         <v>3.4</v>
@@ -1164,13 +1164,13 @@
         <v>31.1</v>
       </c>
       <c r="H6" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I6" t="n">
         <v>4</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>5.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.1</v>
       </c>
       <c r="K6" t="n">
         <v>3.1</v>
@@ -1201,13 +1201,13 @@
         <v>32</v>
       </c>
       <c r="H7" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I7" t="n">
         <v>5</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>5.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7.7</v>
       </c>
       <c r="K7" t="n">
         <v>3</v>
@@ -1238,13 +1238,13 @@
         <v>28.5</v>
       </c>
       <c r="H8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I8" t="n">
         <v>4.8</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>5.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.8</v>
@@ -1275,13 +1275,13 @@
         <v>23.8</v>
       </c>
       <c r="H9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I9" t="n">
         <v>4.7</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>7.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.7</v>
@@ -1312,13 +1312,13 @@
         <v>22.5</v>
       </c>
       <c r="H10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.5</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>4.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.8</v>
       </c>
       <c r="K10" t="n">
         <v>2.6</v>
@@ -1349,13 +1349,13 @@
         <v>19.4</v>
       </c>
       <c r="H11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I11" t="n">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>4.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7.1</v>
       </c>
       <c r="K11" t="n">
         <v>2.6</v>
@@ -1386,13 +1386,13 @@
         <v>19</v>
       </c>
       <c r="H12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>4.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.4</v>
       </c>
       <c r="K12" t="n">
         <v>2.6</v>
@@ -1423,13 +1423,13 @@
         <v>17.3</v>
       </c>
       <c r="H13" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="I13" t="n">
         <v>2.8</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>8.6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>12.4</v>
       </c>
       <c r="K13" t="n">
         <v>0.7</v>
@@ -1460,13 +1460,13 @@
         <v>18.1</v>
       </c>
       <c r="H14" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="I14" t="n">
         <v>4.3</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>9.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>12.6</v>
       </c>
       <c r="K14" t="n">
         <v>0.4</v>
@@ -1497,13 +1497,13 @@
         <v>15.1</v>
       </c>
       <c r="H15" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="I15" t="n">
         <v>3.5</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>10.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>12.2</v>
       </c>
       <c r="K15" t="n">
         <v>0.3</v>
@@ -1534,13 +1534,13 @@
         <v>21.7</v>
       </c>
       <c r="H16" t="n">
+        <v>12</v>
+      </c>
+      <c r="I16" t="n">
         <v>6.7</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>7.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>12</v>
       </c>
       <c r="K16" t="n">
         <v>0.4</v>
@@ -1571,13 +1571,13 @@
         <v>22.3</v>
       </c>
       <c r="H17" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="I17" t="n">
         <v>7.4</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>7.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>13.3</v>
       </c>
       <c r="K17" t="n">
         <v>0.5</v>
@@ -1608,13 +1608,13 @@
         <v>14.1</v>
       </c>
       <c r="H18" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="I18" t="n">
         <v>6.9</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>7.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>13.3</v>
       </c>
       <c r="K18" t="n">
         <v>0.6</v>
@@ -1645,13 +1645,13 @@
         <v>15.1</v>
       </c>
       <c r="H19" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="I19" t="n">
         <v>7</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>6.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>13.8</v>
       </c>
       <c r="K19" t="n">
         <v>0.7</v>
@@ -1682,13 +1682,13 @@
         <v>20.4</v>
       </c>
       <c r="H20" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="I20" t="n">
         <v>7.3</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>7.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>14.8</v>
       </c>
       <c r="K20" t="n">
         <v>0.7</v>
@@ -1719,13 +1719,13 @@
         <v>17.7</v>
       </c>
       <c r="H21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I21" t="n">
         <v>8</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>7.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>15.5</v>
       </c>
       <c r="K21" t="n">
         <v>0.8</v>
@@ -1756,13 +1756,13 @@
         <v>12.5</v>
       </c>
       <c r="H22" t="n">
+        <v>15</v>
+      </c>
+      <c r="I22" t="n">
         <v>7.8</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>7.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>15</v>
       </c>
       <c r="K22" t="n">
         <v>0.8</v>
@@ -1789,10 +1789,10 @@
         <v>11.6</v>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>7.1</v>
       </c>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1816,13 +1816,13 @@
         <v>13.2</v>
       </c>
       <c r="H24" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="I24" t="n">
         <v>21.3</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>7.9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>13.4</v>
       </c>
       <c r="K24" t="n">
         <v>1.8</v>
@@ -1849,13 +1849,13 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="I25" t="n">
         <v>12.9</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>6.6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>10.4</v>
       </c>
       <c r="K25" t="n">
         <v>1.5</v>
@@ -1886,13 +1886,13 @@
         <v>0.2</v>
       </c>
       <c r="H26" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="I26" t="n">
         <v>12.4</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>6.4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>10.7</v>
       </c>
       <c r="K26" t="n">
         <v>1.2</v>
@@ -1923,13 +1923,13 @@
         <v>-14.2</v>
       </c>
       <c r="H27" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="I27" t="n">
         <v>12.2</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>9.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>10.3</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
@@ -1960,13 +1960,13 @@
         <v>-4.9</v>
       </c>
       <c r="H28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I28" t="n">
         <v>12.2</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>7.4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -1997,13 +1997,13 @@
         <v>1.6</v>
       </c>
       <c r="H29" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="I29" t="n">
         <v>13.4</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>7.7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>10.9</v>
       </c>
       <c r="K29" t="n">
         <v>1.1</v>
@@ -2034,13 +2034,13 @@
         <v>-3.4</v>
       </c>
       <c r="H30" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="I30" t="n">
         <v>13.3</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>7.6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>12.6</v>
       </c>
       <c r="K30" t="n">
         <v>1.3</v>
@@ -2069,13 +2069,13 @@
         <v>-6.7</v>
       </c>
       <c r="H31" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="I31" t="n">
         <v>13.9</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>6.1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>11.4</v>
       </c>
       <c r="K31" t="n">
         <v>1.5</v>
@@ -2106,13 +2106,13 @@
         <v>-2.9</v>
       </c>
       <c r="H32" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I32" t="n">
         <v>14.1</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>5.7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>10.8</v>
       </c>
       <c r="K32" t="n">
         <v>1.8</v>
@@ -2143,13 +2143,13 @@
         <v>6.9</v>
       </c>
       <c r="H33" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="I33" t="n">
         <v>15.2</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>5.4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>10.2</v>
       </c>
       <c r="K33" t="n">
         <v>1.9</v>
@@ -2180,13 +2180,13 @@
         <v>10.4</v>
       </c>
       <c r="H34" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="I34" t="n">
         <v>15.2</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>5.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>10.2</v>
       </c>
       <c r="K34" t="n">
         <v>2</v>
@@ -2217,13 +2217,13 @@
         <v>12.7</v>
       </c>
       <c r="H35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I35" t="n">
         <v>3.9</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>5.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.7</v>
       </c>
       <c r="K35" t="n">
         <v>2</v>
@@ -2254,10 +2254,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I36" t="n">
         <v>4.1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4.4</v>
       </c>
       <c r="J36" t="n">
         <v>4.4</v>
@@ -2291,13 +2291,13 @@
         <v>22.6</v>
       </c>
       <c r="H37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I37" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>4.8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.1</v>
       </c>
       <c r="K37" t="n">
         <v>2.9</v>
@@ -2328,13 +2328,13 @@
         <v>20.3</v>
       </c>
       <c r="H38" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="I38" t="n">
         <v>5.7</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>2.6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>-1.3</v>
       </c>
       <c r="K38" t="n">
         <v>3.1</v>
@@ -2365,13 +2365,13 @@
         <v>9.699999999999999</v>
       </c>
       <c r="H39" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="I39" t="n">
         <v>3.5</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>2.9</v>
-      </c>
-      <c r="J39" t="n">
-        <v>-2.1</v>
       </c>
       <c r="K39" t="n">
         <v>3.2</v>
@@ -2402,13 +2402,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H40" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="I40" t="n">
         <v>1.3</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>-3.1</v>
       </c>
       <c r="K40" t="n">
         <v>3.3</v>
@@ -2439,13 +2439,13 @@
         <v>5.8</v>
       </c>
       <c r="H41" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="I41" t="n">
         <v>-2.5</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>3.8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>-4.5</v>
       </c>
       <c r="K41" t="n">
         <v>3.4</v>
@@ -2476,13 +2476,13 @@
         <v>6.7</v>
       </c>
       <c r="H42" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="I42" t="n">
         <v>-3.8</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>4.6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>-3.5</v>
       </c>
       <c r="K42" t="n">
         <v>3.5</v>
@@ -2513,13 +2513,13 @@
         <v>3.2</v>
       </c>
       <c r="H43" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="I43" t="n">
         <v>-4.8</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>-3.6</v>
       </c>
       <c r="K43" t="n">
         <v>3.6</v>
@@ -2550,13 +2550,13 @@
         <v>-1.4</v>
       </c>
       <c r="H44" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="I44" t="n">
         <v>-6</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>4.7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>-3.8</v>
       </c>
       <c r="K44" t="n">
         <v>3.9</v>
@@ -2585,13 +2585,13 @@
         <v>-1.7</v>
       </c>
       <c r="H45" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="I45" t="n">
         <v>-6.2</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>4.4</v>
-      </c>
-      <c r="J45" t="n">
-        <v>-3.3</v>
       </c>
       <c r="K45" t="n">
         <v>4.2</v>
@@ -2622,13 +2622,13 @@
         <v>-4.8</v>
       </c>
       <c r="H46" t="n">
+        <v>-23</v>
+      </c>
+      <c r="I46" t="n">
         <v>-22.2</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>-17.2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>-23</v>
       </c>
       <c r="K46" t="n">
         <v>9.76459</v>
@@ -2659,13 +2659,13 @@
         <v>-5</v>
       </c>
       <c r="H47" t="n">
+        <v>-20.7</v>
+      </c>
+      <c r="I47" t="n">
         <v>-16.1</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>-9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>-20.7</v>
       </c>
       <c r="K47" t="n">
         <v>9.1</v>
@@ -2696,13 +2696,13 @@
         <v>-53.1</v>
       </c>
       <c r="H48" t="n">
+        <v>-15.4</v>
+      </c>
+      <c r="I48" t="n">
         <v>-17.7</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>-7.1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>-15.4</v>
       </c>
       <c r="K48" t="n">
         <v>8.6</v>
@@ -2733,13 +2733,13 @@
         <v>-46.4</v>
       </c>
       <c r="H49" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="I49" t="n">
         <v>-17.1</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>-3.7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>-11.8</v>
       </c>
       <c r="K49" t="n">
         <v>8</v>
@@ -2770,13 +2770,13 @@
         <v>-35.3</v>
       </c>
       <c r="H50" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="I50" t="n">
         <v>-14.6</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>-1.7</v>
-      </c>
-      <c r="J50" t="n">
-        <v>-9.1</v>
       </c>
       <c r="K50" t="n">
         <v>7.6</v>
@@ -2807,13 +2807,13 @@
         <v>-16.6</v>
       </c>
       <c r="H51" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="I51" t="n">
         <v>-12.3</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>0.7</v>
-      </c>
-      <c r="J51" t="n">
-        <v>-6.1</v>
       </c>
       <c r="K51" t="n">
         <v>7.3</v>
@@ -2844,13 +2844,13 @@
         <v>-14.6</v>
       </c>
       <c r="H52" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="I52" t="n">
         <v>-9.300000000000001</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>1.7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>-3.9</v>
       </c>
       <c r="K52" t="n">
         <v>7</v>
@@ -2881,13 +2881,13 @@
         <v>-12.3</v>
       </c>
       <c r="H53" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="I53" t="n">
         <v>-6.1</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>-2.9</v>
       </c>
       <c r="K53" t="n">
         <v>6.6</v>
@@ -2918,13 +2918,13 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="H54" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="I54" t="n">
         <v>-4.7</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>3.3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>-1.7</v>
       </c>
       <c r="K54" t="n">
         <v>6.1</v>
@@ -2955,13 +2955,13 @@
         <v>-9.5</v>
       </c>
       <c r="H55" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="I55" t="n">
         <v>-3.3</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>4.2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>-0.6</v>
       </c>
       <c r="K55" t="n">
         <v>5.6</v>
@@ -2992,13 +2992,13 @@
         <v>-8.4</v>
       </c>
       <c r="H56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I56" t="n">
         <v>-1.5</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>4.8</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6</v>
       </c>
       <c r="K56" t="n">
         <v>5.2</v>
@@ -3029,13 +3029,13 @@
         <v>-5.3</v>
       </c>
       <c r="H57" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="I57" t="n">
         <v>54.3</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>43.2</v>
-      </c>
-      <c r="J57" t="n">
-        <v>54.7</v>
       </c>
       <c r="K57" t="n">
         <v>-0.7</v>
@@ -3066,13 +3066,13 @@
         <v>-2.9</v>
       </c>
       <c r="H58" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="I58" t="n">
         <v>45.2</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>32.71</v>
-      </c>
-      <c r="J58" t="n">
-        <v>46.5</v>
       </c>
       <c r="K58" t="n">
         <v>-0.1</v>
@@ -3101,13 +3101,13 @@
         <v>112.1</v>
       </c>
       <c r="H59" t="n">
+        <v>40</v>
+      </c>
+      <c r="I59" t="n">
         <v>41.4</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>29.7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>40</v>
       </c>
       <c r="K59" t="n">
         <v>0.3</v>
